--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3179663333333334</v>
+        <v>0.01692966666666667</v>
       </c>
       <c r="H2">
-        <v>0.9538990000000001</v>
+        <v>0.050789</v>
       </c>
       <c r="I2">
-        <v>0.1372197387470957</v>
+        <v>0.007576566749688815</v>
       </c>
       <c r="J2">
-        <v>0.1449031013610333</v>
+        <v>0.008018731266168228</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N2">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O2">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P2">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q2">
-        <v>1.268025359914444</v>
+        <v>0.04561848793044444</v>
       </c>
       <c r="R2">
-        <v>11.41222823923</v>
+        <v>0.410566391374</v>
       </c>
       <c r="S2">
-        <v>0.007745482202973964</v>
+        <v>0.000292972414482939</v>
       </c>
       <c r="T2">
-        <v>0.008673992546006514</v>
+        <v>0.0003288765911401709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3179663333333334</v>
+        <v>0.01692966666666667</v>
       </c>
       <c r="H3">
-        <v>0.9538990000000001</v>
+        <v>0.050789</v>
       </c>
       <c r="I3">
-        <v>0.1372197387470957</v>
+        <v>0.007576566749688815</v>
       </c>
       <c r="J3">
-        <v>0.1449031013610333</v>
+        <v>0.008018731266168228</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>162.299907</v>
       </c>
       <c r="O3">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P3">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q3">
-        <v>17.201968776377</v>
+        <v>0.9158944418470001</v>
       </c>
       <c r="R3">
-        <v>154.817718987393</v>
+        <v>8.243049976623</v>
       </c>
       <c r="S3">
-        <v>0.1050748251774173</v>
+        <v>0.005882084615530245</v>
       </c>
       <c r="T3">
-        <v>0.1176709501716893</v>
+        <v>0.006602942261877294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3179663333333334</v>
+        <v>0.01692966666666667</v>
       </c>
       <c r="H4">
-        <v>0.9538990000000001</v>
+        <v>0.050789</v>
       </c>
       <c r="I4">
-        <v>0.1372197387470957</v>
+        <v>0.007576566749688815</v>
       </c>
       <c r="J4">
-        <v>0.1449031013610333</v>
+        <v>0.008018731266168228</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N4">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O4">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P4">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q4">
-        <v>0.08219747683</v>
+        <v>0.007395674094333332</v>
       </c>
       <c r="R4">
-        <v>0.73977729147</v>
+        <v>0.066561066849</v>
       </c>
       <c r="S4">
-        <v>0.0005020870355140895</v>
+        <v>4.749671886208549E-05</v>
       </c>
       <c r="T4">
-        <v>0.0005622760584000222</v>
+        <v>5.331750778404901E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3179663333333334</v>
+        <v>0.01692966666666667</v>
       </c>
       <c r="H5">
-        <v>0.9538990000000001</v>
+        <v>0.050789</v>
       </c>
       <c r="I5">
-        <v>0.1372197387470957</v>
+        <v>0.007576566749688815</v>
       </c>
       <c r="J5">
-        <v>0.1449031013610333</v>
+        <v>0.008018731266168228</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N5">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O5">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P5">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q5">
-        <v>3.844523305141334</v>
+        <v>0.2023866736225</v>
       </c>
       <c r="R5">
-        <v>23.067139830848</v>
+        <v>1.214320041735</v>
       </c>
       <c r="S5">
-        <v>0.02348351048822871</v>
+        <v>0.001299773734735813</v>
       </c>
       <c r="T5">
-        <v>0.0175324393059953</v>
+        <v>0.0009727085418328941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3179663333333334</v>
+        <v>0.01692966666666667</v>
       </c>
       <c r="H6">
-        <v>0.9538990000000001</v>
+        <v>0.050789</v>
       </c>
       <c r="I6">
-        <v>0.1372197387470957</v>
+        <v>0.007576566749688815</v>
       </c>
       <c r="J6">
-        <v>0.1449031013610333</v>
+        <v>0.008018731266168228</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N6">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O6">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P6">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q6">
-        <v>0.06774940460966668</v>
+        <v>0.008445550442999999</v>
       </c>
       <c r="R6">
-        <v>0.609744641487</v>
+        <v>0.076009953987</v>
       </c>
       <c r="S6">
-        <v>0.0004138338429616748</v>
+        <v>5.423926607773163E-05</v>
       </c>
       <c r="T6">
-        <v>0.0004634432789422116</v>
+        <v>6.088636353381956E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9705113333333334</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H7">
-        <v>2.911534</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I7">
-        <v>0.4188283401421813</v>
+        <v>0.434334830277983</v>
       </c>
       <c r="J7">
-        <v>0.4422798496676218</v>
+        <v>0.459682386310261</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N7">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O7">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P7">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q7">
-        <v>3.870324791464445</v>
+        <v>2.615128839671556</v>
       </c>
       <c r="R7">
-        <v>34.83292312318</v>
+        <v>23.53615955704401</v>
       </c>
       <c r="S7">
-        <v>0.02364111376608383</v>
+        <v>0.01679495847189686</v>
       </c>
       <c r="T7">
-        <v>0.02647515535024623</v>
+        <v>0.01885320397937952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9705113333333334</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H8">
-        <v>2.911534</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I8">
-        <v>0.4188283401421813</v>
+        <v>0.434334830277983</v>
       </c>
       <c r="J8">
-        <v>0.4422798496676218</v>
+        <v>0.459682386310261</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>162.299907</v>
       </c>
       <c r="O8">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P8">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q8">
-        <v>52.50463304748201</v>
+        <v>52.50463304748202</v>
       </c>
       <c r="R8">
         <v>472.5416974273381</v>
       </c>
       <c r="S8">
-        <v>0.3207141699992415</v>
+        <v>0.3371968211422403</v>
       </c>
       <c r="T8">
-        <v>0.359160636752087</v>
+        <v>0.3785207603121276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9705113333333334</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H9">
-        <v>2.911534</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I9">
-        <v>0.4188283401421813</v>
+        <v>0.434334830277983</v>
       </c>
       <c r="J9">
-        <v>0.4422798496676218</v>
+        <v>0.459682386310261</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N9">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O9">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P9">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q9">
-        <v>0.25088688478</v>
+        <v>0.4239649644326667</v>
       </c>
       <c r="R9">
-        <v>2.25798196302</v>
+        <v>3.815684679894001</v>
       </c>
       <c r="S9">
-        <v>0.00153249293149325</v>
+        <v>0.002722800446069095</v>
       </c>
       <c r="T9">
-        <v>0.001716204610150184</v>
+        <v>0.00305648342571272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9705113333333334</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H10">
-        <v>2.911534</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I10">
-        <v>0.4188283401421813</v>
+        <v>0.434334830277983</v>
       </c>
       <c r="J10">
-        <v>0.4422798496676218</v>
+        <v>0.459682386310261</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N10">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O10">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P10">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q10">
-        <v>11.73442923906133</v>
+        <v>11.602033538735</v>
       </c>
       <c r="R10">
-        <v>70.40657543436801</v>
+        <v>69.61220123241002</v>
       </c>
       <c r="S10">
-        <v>0.0716774409301556</v>
+        <v>0.07451092600740911</v>
       </c>
       <c r="T10">
-        <v>0.05351331025857214</v>
+        <v>0.05576156237840662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9705113333333334</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H11">
-        <v>2.911534</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I11">
-        <v>0.4188283401421813</v>
+        <v>0.434334830277983</v>
       </c>
       <c r="J11">
-        <v>0.4422798496676218</v>
+        <v>0.459682386310261</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N11">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O11">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P11">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q11">
-        <v>0.2067878203046667</v>
+        <v>0.4841502542580001</v>
       </c>
       <c r="R11">
-        <v>1.861090382742</v>
+        <v>4.357352288322001</v>
       </c>
       <c r="S11">
-        <v>0.001263122515207141</v>
+        <v>0.003109324210367645</v>
       </c>
       <c r="T11">
-        <v>0.001414542696566128</v>
+        <v>0.003490376214634583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.368371</v>
+        <v>0.5101613333333334</v>
       </c>
       <c r="H12">
-        <v>1.105113</v>
+        <v>1.530484</v>
       </c>
       <c r="I12">
-        <v>0.1589720894413551</v>
+        <v>0.2283134967282431</v>
       </c>
       <c r="J12">
-        <v>0.167873434246598</v>
+        <v>0.2416377543005417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N12">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O12">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P12">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q12">
-        <v>1.469035306223333</v>
+        <v>1.374674946971556</v>
       </c>
       <c r="R12">
-        <v>13.22131775601</v>
+        <v>12.372074522744</v>
       </c>
       <c r="S12">
-        <v>0.00897331171725221</v>
+        <v>0.008828478465957324</v>
       </c>
       <c r="T12">
-        <v>0.0100490113990002</v>
+        <v>0.009910420774470326</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.368371</v>
+        <v>0.5101613333333334</v>
       </c>
       <c r="H13">
-        <v>1.105113</v>
+        <v>1.530484</v>
       </c>
       <c r="I13">
-        <v>0.1589720894413551</v>
+        <v>0.2283134967282431</v>
       </c>
       <c r="J13">
-        <v>0.167873434246598</v>
+        <v>0.2416377543005417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>162.299907</v>
       </c>
       <c r="O13">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P13">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q13">
-        <v>19.928859680499</v>
+        <v>27.59971231833201</v>
       </c>
       <c r="R13">
-        <v>179.359737124491</v>
+        <v>248.397410864988</v>
       </c>
       <c r="S13">
-        <v>0.121731499117088</v>
+        <v>0.177251696050625</v>
       </c>
       <c r="T13">
-        <v>0.1363243873377433</v>
+        <v>0.1989741378000553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.368371</v>
+        <v>0.5101613333333334</v>
       </c>
       <c r="H14">
-        <v>1.105113</v>
+        <v>1.530484</v>
       </c>
       <c r="I14">
-        <v>0.1589720894413551</v>
+        <v>0.2283134967282431</v>
       </c>
       <c r="J14">
-        <v>0.167873434246598</v>
+        <v>0.2416377543005417</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N14">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O14">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P14">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q14">
-        <v>0.09522758721000001</v>
+        <v>0.2228624479826667</v>
       </c>
       <c r="R14">
-        <v>0.8570482848900001</v>
+        <v>2.005762031844</v>
       </c>
       <c r="S14">
-        <v>0.0005816788885176334</v>
+        <v>0.001431273863846897</v>
       </c>
       <c r="T14">
-        <v>0.0006514091971232003</v>
+        <v>0.001606678465481944</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.368371</v>
+        <v>0.5101613333333334</v>
       </c>
       <c r="H15">
-        <v>1.105113</v>
+        <v>1.530484</v>
       </c>
       <c r="I15">
-        <v>0.1589720894413551</v>
+        <v>0.2283134967282431</v>
       </c>
       <c r="J15">
-        <v>0.167873434246598</v>
+        <v>0.2416377543005417</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N15">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O15">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P15">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q15">
-        <v>4.453964920096</v>
+        <v>6.098752993610001</v>
       </c>
       <c r="R15">
-        <v>26.723789520576</v>
+        <v>36.59251796166</v>
       </c>
       <c r="S15">
-        <v>0.02720616409722402</v>
+        <v>0.03916759346774707</v>
       </c>
       <c r="T15">
-        <v>0.0203117170672853</v>
+        <v>0.0293117576628517</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.368371</v>
+        <v>0.5101613333333334</v>
       </c>
       <c r="H16">
-        <v>1.105113</v>
+        <v>1.530484</v>
       </c>
       <c r="I16">
-        <v>0.1589720894413551</v>
+        <v>0.2283134967282431</v>
       </c>
       <c r="J16">
-        <v>0.167873434246598</v>
+        <v>0.2416377543005417</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N16">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O16">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P16">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q16">
-        <v>0.078489177341</v>
+        <v>0.254499592908</v>
       </c>
       <c r="R16">
-        <v>0.706402596069</v>
+        <v>2.290496336172</v>
       </c>
       <c r="S16">
-        <v>0.0004794356212732221</v>
+        <v>0.001634454880066767</v>
       </c>
       <c r="T16">
-        <v>0.0005369092454459689</v>
+        <v>0.001834759597682457</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3686035</v>
+        <v>0.369637</v>
       </c>
       <c r="H17">
-        <v>0.7372069999999999</v>
+        <v>0.739274</v>
       </c>
       <c r="I17">
-        <v>0.1590724258163551</v>
+        <v>0.1654243676970244</v>
       </c>
       <c r="J17">
-        <v>0.1119862591794973</v>
+        <v>0.1167189654859369</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N17">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O17">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P17">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q17">
-        <v>1.469962498398333</v>
+        <v>0.9960196709806667</v>
       </c>
       <c r="R17">
-        <v>8.81977499039</v>
+        <v>5.976118025884</v>
       </c>
       <c r="S17">
-        <v>0.008978975287333083</v>
+        <v>0.006396667253080203</v>
       </c>
       <c r="T17">
-        <v>0.006703569269769467</v>
+        <v>0.004787058477988516</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3686035</v>
+        <v>0.369637</v>
       </c>
       <c r="H18">
-        <v>0.7372069999999999</v>
+        <v>0.739274</v>
       </c>
       <c r="I18">
-        <v>0.1590724258163551</v>
+        <v>0.1654243676970244</v>
       </c>
       <c r="J18">
-        <v>0.1119862591794973</v>
+        <v>0.1167189654859369</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>162.299907</v>
       </c>
       <c r="O18">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P18">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q18">
-        <v>19.9414379232915</v>
+        <v>19.997350241253</v>
       </c>
       <c r="R18">
-        <v>119.648627539749</v>
+        <v>119.984101447518</v>
       </c>
       <c r="S18">
-        <v>0.1218083308262745</v>
+        <v>0.128427579457998</v>
       </c>
       <c r="T18">
-        <v>0.09094028630203041</v>
+        <v>0.09611103856557669</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3686035</v>
+        <v>0.369637</v>
       </c>
       <c r="H19">
-        <v>0.7372069999999999</v>
+        <v>0.739274</v>
       </c>
       <c r="I19">
-        <v>0.1590724258163551</v>
+        <v>0.1654243676970244</v>
       </c>
       <c r="J19">
-        <v>0.1119862591794973</v>
+        <v>0.1167189654859369</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N19">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O19">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P19">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q19">
-        <v>0.095287690785</v>
+        <v>0.161474814539</v>
       </c>
       <c r="R19">
-        <v>0.5717261447100001</v>
+        <v>0.968848887234</v>
       </c>
       <c r="S19">
-        <v>0.0005820460193221223</v>
+        <v>0.001037028372483689</v>
       </c>
       <c r="T19">
-        <v>0.00043454689247489</v>
+        <v>0.0007760784274064274</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3686035</v>
+        <v>0.369637</v>
       </c>
       <c r="H20">
-        <v>0.7372069999999999</v>
+        <v>0.739274</v>
       </c>
       <c r="I20">
-        <v>0.1590724258163551</v>
+        <v>0.1654243676970244</v>
       </c>
       <c r="J20">
-        <v>0.1119862591794973</v>
+        <v>0.1167189654859369</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N20">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O20">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P20">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q20">
-        <v>4.456776072016</v>
+        <v>4.4188467706275</v>
       </c>
       <c r="R20">
-        <v>17.827104288064</v>
+        <v>17.67538708251</v>
       </c>
       <c r="S20">
-        <v>0.02722333546291949</v>
+        <v>0.02837884959262094</v>
       </c>
       <c r="T20">
-        <v>0.01354969130217651</v>
+        <v>0.01415854091545356</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3686035</v>
+        <v>0.369637</v>
       </c>
       <c r="H21">
-        <v>0.7372069999999999</v>
+        <v>0.739274</v>
       </c>
       <c r="I21">
-        <v>0.1590724258163551</v>
+        <v>0.1654243676970244</v>
       </c>
       <c r="J21">
-        <v>0.1119862591794973</v>
+        <v>0.1167189654859369</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N21">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O21">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P21">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q21">
-        <v>0.0785387163485</v>
+        <v>0.184397483457</v>
       </c>
       <c r="R21">
-        <v>0.471232298091</v>
+        <v>1.106384900742</v>
       </c>
       <c r="S21">
-        <v>0.0004797382205059143</v>
+        <v>0.001184243020841589</v>
       </c>
       <c r="T21">
-        <v>0.0003581654130459839</v>
+        <v>0.0008862490995117234</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2917533333333333</v>
+        <v>0.367238</v>
       </c>
       <c r="H22">
-        <v>0.8752599999999999</v>
+        <v>1.101714</v>
       </c>
       <c r="I22">
-        <v>0.1259074058530127</v>
+        <v>0.1643507385470607</v>
       </c>
       <c r="J22">
-        <v>0.1329573555452496</v>
+        <v>0.173942162637092</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N22">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O22">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P22">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q22">
-        <v>1.163489925577778</v>
+        <v>0.9895553527693334</v>
       </c>
       <c r="R22">
-        <v>10.4714093302</v>
+        <v>8.905998174924001</v>
       </c>
       <c r="S22">
-        <v>0.007106948170587234</v>
+        <v>0.006355151915762404</v>
       </c>
       <c r="T22">
-        <v>0.007958912542960692</v>
+        <v>0.007133984617366011</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2917533333333333</v>
+        <v>0.367238</v>
       </c>
       <c r="H23">
-        <v>0.8752599999999999</v>
+        <v>1.101714</v>
       </c>
       <c r="I23">
-        <v>0.1259074058530127</v>
+        <v>0.1643507385470607</v>
       </c>
       <c r="J23">
-        <v>0.1329573555452496</v>
+        <v>0.173942162637092</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>162.299907</v>
       </c>
       <c r="O23">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P23">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q23">
-        <v>15.78384628898</v>
+        <v>19.867564415622</v>
       </c>
       <c r="R23">
-        <v>142.05461660082</v>
+        <v>178.808079740598</v>
       </c>
       <c r="S23">
-        <v>0.09641250434772053</v>
+        <v>0.1275940650557067</v>
       </c>
       <c r="T23">
-        <v>0.1079702105225739</v>
+        <v>0.1432308950974007</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2917533333333333</v>
+        <v>0.367238</v>
       </c>
       <c r="H24">
-        <v>0.8752599999999999</v>
+        <v>1.101714</v>
       </c>
       <c r="I24">
-        <v>0.1259074058530127</v>
+        <v>0.1643507385470607</v>
       </c>
       <c r="J24">
-        <v>0.1329573555452496</v>
+        <v>0.173942162637092</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N24">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O24">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P24">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q24">
-        <v>0.07542115419999999</v>
+        <v>0.160426818586</v>
       </c>
       <c r="R24">
-        <v>0.6787903878</v>
+        <v>1.443841367274</v>
       </c>
       <c r="S24">
-        <v>0.0004606952085116579</v>
+        <v>0.001030297901601206</v>
       </c>
       <c r="T24">
-        <v>0.0005159222757075995</v>
+        <v>0.001156562341664451</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2917533333333333</v>
+        <v>0.367238</v>
       </c>
       <c r="H25">
-        <v>0.8752599999999999</v>
+        <v>1.101714</v>
       </c>
       <c r="I25">
-        <v>0.1259074058530127</v>
+        <v>0.1643507385470607</v>
       </c>
       <c r="J25">
-        <v>0.1329573555452496</v>
+        <v>0.173942162637092</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N25">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O25">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P25">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q25">
-        <v>3.527582551253333</v>
+        <v>4.390167787185</v>
       </c>
       <c r="R25">
-        <v>21.16549530752</v>
+        <v>26.34100672311</v>
       </c>
       <c r="S25">
-        <v>0.02154754055715234</v>
+        <v>0.02819466656935028</v>
       </c>
       <c r="T25">
-        <v>0.01608707297833989</v>
+        <v>0.02109997476730956</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2917533333333333</v>
+        <v>0.367238</v>
       </c>
       <c r="H26">
-        <v>0.8752599999999999</v>
+        <v>1.101714</v>
       </c>
       <c r="I26">
-        <v>0.1259074058530127</v>
+        <v>0.1643507385470607</v>
       </c>
       <c r="J26">
-        <v>0.1329573555452496</v>
+        <v>0.173942162637092</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N26">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O26">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P26">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q26">
-        <v>0.06216417448666667</v>
+        <v>0.183200715918</v>
       </c>
       <c r="R26">
-        <v>0.55947757038</v>
+        <v>1.648806443262</v>
       </c>
       <c r="S26">
-        <v>0.0003797175690409944</v>
+        <v>0.001176557104640021</v>
       </c>
       <c r="T26">
-        <v>0.0004252372256674555</v>
+        <v>0.001320745813351286</v>
       </c>
     </row>
   </sheetData>
